--- a/matrix_screen.xlsx
+++ b/matrix_screen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/goimomoka/Documents/momoka-goi-educure/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34D27414-0EDC-6D4C-952F-DCA0285E1CAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCBBDF26-9CA3-C847-99D8-0D626E6C0908}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1360" yWindow="1360" windowWidth="27900" windowHeight="16500" xr2:uid="{CC8C7BCF-39A4-3644-93DF-6639F86D4B8E}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="36">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -77,349 +77,96 @@
   </si>
   <si>
     <t>ログイン画面</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>収支入力画面</t>
-    <rPh sb="0" eb="6">
-      <t>シュウセィ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>収支一覧画面</t>
-    <rPh sb="0" eb="1">
-      <t>シュウシイティ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>目標設定画面</t>
-    <rPh sb="0" eb="6">
-      <t>モクヒョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>グラ表示画面</t>
-    <rPh sb="2" eb="4">
-      <t>ヒョウ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ガメn</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>ユーザー一覧画面（管理者）</t>
-    <rPh sb="4" eb="6">
-      <t>イチラn</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ガメn</t>
-    </rPh>
-    <rPh sb="9" eb="12">
-      <t>カンリ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>メニュー画面</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>前ユーザーを一覧表示する（管理者専用）</t>
-    <rPh sb="0" eb="1">
-      <t>ゼンユ-</t>
-    </rPh>
-    <rPh sb="6" eb="10">
-      <t>イチラn</t>
-    </rPh>
-    <rPh sb="13" eb="18">
-      <t>カンリシャセ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ログイン後の各機能への遷移メニュー画面</t>
-    <rPh sb="6" eb="9">
-      <t>カクキノウ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>セn</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>ガメn</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>セッション認証が必要</t>
-    <rPh sb="5" eb="7">
-      <t>ニンショウ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ヒツヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>条件絞り込み/編集/削除ボタン付き</t>
-    <rPh sb="0" eb="3">
-      <t>ジョウケn</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ヘンシュウ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>サクゼィオ</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t xml:space="preserve">ツキ </t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Chart.js表示領域あり</t>
-    <rPh sb="8" eb="10">
-      <t>ヒョウ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>リョウイキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>管理者のみ表示</t>
-    <rPh sb="0" eb="3">
-      <t>カンリ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ヒョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>パスワード再設定画面</t>
-    <rPh sb="5" eb="8">
-      <t>サイセッテイ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ガメn</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>退会確認画面</t>
-    <rPh sb="0" eb="2">
-      <t>タイカイ</t>
-    </rPh>
-    <rPh sb="2" eb="6">
-      <t>カクニn</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ログアウト処理</t>
-    <rPh sb="5" eb="7">
-      <t>ショリ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>セッションを破棄してログイン画面へ遷移する処理（画面なし）</t>
-    <rPh sb="6" eb="8">
-      <t>ハキ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>センイ</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>ショリ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>ガメn</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ユーザーIDとパスワードを入力して認証を行う画面</t>
-    <rPh sb="13" eb="15">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>ニンショウ</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>オコナウ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>ガメn</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>収支の内容（金額、カテゴリなど）を入力する画面</t>
-    <rPh sb="0" eb="2">
-      <t>シュウセィ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ナイヨウ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>キn</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>ガメn</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>登録済みの収支を一覧で表示・編集・削除できる画面</t>
-    <rPh sb="0" eb="3">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>シュウセィ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>イチラn</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ヒョウ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>ヘンシュウ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>サクゼィオ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>ガメn</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>収支の目標金額を設定・変更する画面</t>
-    <rPh sb="0" eb="1">
-      <t>シュウセィ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>モク</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>キンガク</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ヘンコウ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>ガメn</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>収支内容をグラフ形式で視覚化して表示する画面</t>
-    <rPh sb="0" eb="4">
-      <t>シュウセィ</t>
-    </rPh>
-    <rPh sb="11" eb="14">
-      <t>シカク</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>ヒョウ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>ガメn</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>登録済みのメールアドレスに基づきパスワード再設定手続きを行う画面</t>
-    <rPh sb="0" eb="1">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>ノ</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>モト</t>
-    </rPh>
-    <rPh sb="21" eb="24">
-      <t>サイセッテイ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>テツ</t>
-    </rPh>
-    <rPh sb="28" eb="29">
-      <t>オコナウ</t>
-    </rPh>
-    <rPh sb="30" eb="32">
-      <t>ガメn</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>退会前に確認メッセージを表示する画面</t>
-    <rPh sb="0" eb="3">
-      <t>タイカイマエ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>カクニn</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ヒョウ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>ガメn</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ユーザー設定画面（またはメニュー画面）</t>
-    <rPh sb="6" eb="8">
-      <t>ガメn</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>メニュー画面</t>
-    <rPh sb="0" eb="2">
-      <t>メニューガメn</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>メール入力と認証処理が必要</t>
-    <rPh sb="6" eb="10">
-      <t>ニンショウ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>ヒツヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>「はい/いいえ」のボタン付き確認画面</t>
-    <rPh sb="14" eb="18">
-      <t>カクニn</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>画面ではなく処理（リンクまたはボタン）</t>
-    <rPh sb="0" eb="2">
-      <t>ガメn</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ショリ</t>
-    </rPh>
+  </si>
+  <si>
+    <t>メール/パスワード入力で認証を行う</t>
+  </si>
+  <si>
+    <t>初期</t>
+  </si>
+  <si>
+    <t>パスワードリセット/新規登録へのリンク</t>
+  </si>
+  <si>
+    <t>ユーザー情報を入力してアカウント作成</t>
+  </si>
+  <si>
+    <t>入力バリデーション/重複チェック</t>
+  </si>
+  <si>
+    <t>収入/支出の新規登録フォーム</t>
+  </si>
+  <si>
+    <t>必須入力チェック</t>
+  </si>
+  <si>
+    <t>期間・カテゴリ絞り込み付きの一覧表示</t>
+  </si>
+  <si>
+    <t>編集/削除ボタン, ★CSV出力ボタン</t>
+  </si>
+  <si>
+    <t>月間目標の登録・更新</t>
+  </si>
+  <si>
+    <t>グラフ画面</t>
+  </si>
+  <si>
+    <t>推移/カテゴリ比率のグラフ表示</t>
+  </si>
+  <si>
+    <t>Chart.js</t>
+  </si>
+  <si>
+    <t>ユーザーの一覧・検索</t>
+  </si>
+  <si>
+    <t>管理者のみ</t>
+  </si>
+  <si>
+    <t>メール送信→トークン認証→新PW設定</t>
+  </si>
+  <si>
+    <t>メール送信or仮PW</t>
+  </si>
+  <si>
+    <t>機能へのハブ</t>
+  </si>
+  <si>
+    <t>ログイン成功時</t>
+  </si>
+  <si>
+    <t>退会確認ダイアログ</t>
+  </si>
+  <si>
+    <t>退会の最終確認</t>
+  </si>
+  <si>
+    <t>ユーザー設定/メニュー</t>
+  </si>
+  <si>
+    <t>確認『はい/いいえ』</t>
+  </si>
+  <si>
+    <t>新規登録画面</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -466,10 +213,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -804,21 +552,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DC44E35-BACB-224E-8D9F-9CDD9D4D3254}">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <cols>
     <col min="1" max="1" width="3.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="61" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="36.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="36.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -835,166 +584,201 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:8">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="C2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="B3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="B4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="B5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+      <c r="B6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+      <c r="E7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+      <c r="B8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" t="s">
+      <c r="B9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E9" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+      <c r="E9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" t="s">
-        <v>28</v>
-      </c>
-      <c r="D10" t="s">
+      <c r="B10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E10" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+      <c r="D10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D11" t="s">
-        <v>30</v>
-      </c>
-      <c r="E11" t="s">
+      <c r="B11" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>33</v>
       </c>
+      <c r="E11" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/matrix_screen.xlsx
+++ b/matrix_screen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/goimomoka/Documents/momoka-goi-educure/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCBBDF26-9CA3-C847-99D8-0D626E6C0908}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBAEC2C4-AADE-B44D-AEB6-B1853665051B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1360" yWindow="1360" windowWidth="27900" windowHeight="16500" xr2:uid="{CC8C7BCF-39A4-3644-93DF-6639F86D4B8E}"/>
   </bookViews>
@@ -100,9 +100,6 @@
     <t>メール/パスワード入力で認証を行う</t>
   </si>
   <si>
-    <t>初期</t>
-  </si>
-  <si>
     <t>パスワードリセット/新規登録へのリンク</t>
   </si>
   <si>
@@ -167,6 +164,13 @@
   </si>
   <si>
     <t>新規登録画面</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>初期画面</t>
+    <rPh sb="2" eb="4">
+      <t>ガメn</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -555,7 +559,7 @@
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -595,10 +599,10 @@
         <v>12</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>14</v>
       </c>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
@@ -609,16 +613,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
@@ -632,13 +636,13 @@
         <v>6</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
@@ -652,13 +656,13 @@
         <v>7</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
@@ -672,7 +676,7 @@
         <v>8</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>10</v>
@@ -687,16 +691,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>23</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
@@ -710,13 +714,13 @@
         <v>9</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
@@ -730,13 +734,13 @@
         <v>11</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
@@ -750,10 +754,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>30</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
@@ -765,16 +769,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="D11" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="E11" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>34</v>
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>

--- a/matrix_screen.xlsx
+++ b/matrix_screen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/goimomoka/Documents/momoka-goi-educure/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBAEC2C4-AADE-B44D-AEB6-B1853665051B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DD7A910-3C8F-1E46-8AA7-2E69B5BB031C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1360" yWindow="1360" windowWidth="27900" windowHeight="16500" xr2:uid="{CC8C7BCF-39A4-3644-93DF-6639F86D4B8E}"/>
   </bookViews>

--- a/matrix_screen.xlsx
+++ b/matrix_screen.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/goimomoka/Documents/momoka-goi-educure/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/goimomoka/Documents/momoka-goi-educure/6_自作/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DD7A910-3C8F-1E46-8AA7-2E69B5BB031C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{358477DD-67DB-CD44-B632-8DBBBC16432B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1360" yWindow="1360" windowWidth="27900" windowHeight="16500" xr2:uid="{CC8C7BCF-39A4-3644-93DF-6639F86D4B8E}"/>
+    <workbookView xWindow="1360" yWindow="1300" windowWidth="27900" windowHeight="16500" xr2:uid="{CC8C7BCF-39A4-3644-93DF-6639F86D4B8E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="46">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1"/>
@@ -172,6 +172,52 @@
       <t>ガメn</t>
     </rPh>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザー設定画面</t>
+    <rPh sb="0" eb="4">
+      <t>ユーザーセッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>自分のプロフィールを表示・編集する</t>
+  </si>
+  <si>
+    <t>メール変更時は確認メール/バリデーション</t>
+  </si>
+  <si>
+    <t>ユーザー一覧画面（管理者）</t>
+    <rPh sb="11" eb="12">
+      <t xml:space="preserve">シャ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>全ユーザーの検索/絞込/表示をする</t>
+  </si>
+  <si>
+    <t>ページング/絞込/並び替え</t>
+  </si>
+  <si>
+    <t>ユーザー詳細編集画面（管理者）</t>
+    <rPh sb="13" eb="14">
+      <t>sy</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>選択したユーザー情報を編集/削除する</t>
+    <rPh sb="0" eb="2">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザー一覧画面</t>
+  </si>
+  <si>
+    <t>保存/削除ボタン,削除は確認ダイアログ,論理削除</t>
   </si>
 </sst>
 </file>
@@ -556,10 +602,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DC44E35-BACB-224E-8D9F-9CDD9D4D3254}">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -784,6 +830,57 @@
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
     </row>
+    <row r="12" spans="1:8">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" t="s">
+        <v>43</v>
+      </c>
+      <c r="D14" t="s">
+        <v>44</v>
+      </c>
+      <c r="E14" t="s">
+        <v>45</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
